--- a/demo/IO Spec Output.xlsx
+++ b/demo/IO Spec Output.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Course Equivelents" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Course Equivalents" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Course Areas" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Grade Schema" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Rank Schema" sheetId="4" state="visible" r:id="rId5"/>
@@ -922,7 +922,7 @@
   </sheetPr>
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1854,7 +1854,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
